--- a/data/Production_Filled_July.xlsx
+++ b/data/Production_Filled_July.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cil94\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cil94\Desktop\test\Filter_form\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Total_Salable_Prod" sheetId="2" r:id="rId2"/>
+    <sheet name="Product_Wise" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="109">
   <si>
     <t>DATE</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>TOTAL -</t>
-  </si>
-  <si>
-    <t>JULY TOTAL SALABLE PRODUCTION</t>
   </si>
   <si>
     <t>Jute Issue</t>
@@ -365,7 +362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,14 +409,6 @@
       <color theme="3"/>
       <name val="Franklin Gothic Demi"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -538,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,7 +557,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -581,18 +570,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -608,6 +591,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6512,7 +6498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
@@ -6523,142 +6509,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="O1" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="P1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="U1" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="V1" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="W1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="Y1" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Z1" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AA1" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AB1" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AC1" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AD1" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AE1" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AF1" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AG1" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AH1" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AI1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="AI1" s="35" t="s">
+      <c r="AJ1" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AK1" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AL1" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AM1" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AN1" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="AN1" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO1" s="34" t="s">
+      <c r="AO1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="34" t="s">
+      <c r="AP1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AQ1" s="34" t="s">
+      <c r="AQ1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AR1" s="34" t="s">
+      <c r="AR1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AS1" s="34" t="s">
+      <c r="AS1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="35" t="s">
+      <c r="AT1" s="33" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9299,10 +9285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9316,614 +9302,612 @@
     <col min="9" max="39" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>14</v>
+    <row r="2" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>45839</v>
+      </c>
+      <c r="B2" s="4">
+        <v>34.707999999999998</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5.8230000000000004</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="F2" s="4">
+        <f>B2+C2+D2+E2</f>
+        <v>41.31</v>
+      </c>
+      <c r="G2" s="4">
+        <f>F2-C2</f>
+        <v>41.31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="B3" s="4">
-        <v>34.707999999999998</v>
+        <v>34.603999999999999</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>5.8230000000000004</v>
+        <v>5.923</v>
       </c>
       <c r="E3" s="4">
-        <v>0.77900000000000003</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="F3" s="4">
-        <f>B3+C3+D3+E3</f>
-        <v>41.31</v>
+        <f t="shared" ref="F3:F24" si="0">B3+C3+D3+E3</f>
+        <v>41.332000000000001</v>
       </c>
       <c r="G3" s="4">
-        <f>F3-C3</f>
-        <v>41.31</v>
+        <f t="shared" ref="G3:G24" si="1">F3-C3</f>
+        <v>41.332000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B4" s="4">
-        <v>34.603999999999999</v>
+        <v>34.468000000000004</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>5.923</v>
+        <v>7.1429999999999998</v>
       </c>
       <c r="E4" s="4">
-        <v>0.80500000000000005</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F25" si="0">B4+C4+D4+E4</f>
-        <v>41.332000000000001</v>
+        <f t="shared" si="0"/>
+        <v>42.406000000000006</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G25" si="1">F4-C4</f>
-        <v>41.332000000000001</v>
+        <f t="shared" si="1"/>
+        <v>42.406000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
-        <v>45841</v>
+        <v>45843</v>
       </c>
       <c r="B5" s="4">
-        <v>34.468000000000004</v>
+        <v>35.005000000000003</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>7.1429999999999998</v>
+        <v>7.71</v>
       </c>
       <c r="E5" s="4">
-        <v>0.79500000000000004</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>42.406000000000006</v>
+        <v>43.513000000000005</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>42.406000000000006</v>
+        <v>43.513000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
-        <v>45843</v>
+        <v>45845</v>
       </c>
       <c r="B6" s="4">
-        <v>35.005000000000003</v>
+        <v>33.194000000000003</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>7.71</v>
+        <v>7.39</v>
       </c>
       <c r="E6" s="4">
-        <v>0.79800000000000004</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>43.513000000000005</v>
+        <v>41.359000000000002</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>43.513000000000005</v>
+        <v>41.359000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B7" s="4">
-        <v>33.194000000000003</v>
+        <v>34.761000000000003</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>7.39</v>
+        <v>7.76</v>
       </c>
       <c r="E7" s="4">
-        <v>0.77500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>41.359000000000002</v>
+        <v>43.320999999999998</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>41.359000000000002</v>
+        <v>43.320999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B8" s="4">
-        <v>34.761000000000003</v>
+        <v>33.944000000000003</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <v>7.76</v>
+        <v>6.6559999999999997</v>
       </c>
       <c r="E8" s="4">
-        <v>0.8</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>43.320999999999998</v>
+        <v>41.381</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>43.320999999999998</v>
+        <v>41.381</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="B9" s="4">
-        <v>33.944000000000003</v>
+        <v>33.929000000000002</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>6.6559999999999997</v>
+        <v>6.8609999999999998</v>
       </c>
       <c r="E9" s="4">
-        <v>0.78100000000000003</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>41.381</v>
+        <v>41.582999999999998</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>41.381</v>
+        <v>41.582999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B10" s="4">
-        <v>33.929000000000002</v>
+        <v>35.44</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>6.8609999999999998</v>
+        <v>7.4580000000000002</v>
       </c>
       <c r="E10" s="4">
-        <v>0.79300000000000004</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>41.582999999999998</v>
+        <v>43.680999999999997</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="1"/>
-        <v>41.582999999999998</v>
+        <v>43.680999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B11" s="4">
-        <v>35.44</v>
+        <v>34.67</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
       </c>
       <c r="D11" s="4">
-        <v>7.4580000000000002</v>
+        <v>7.4320000000000004</v>
       </c>
       <c r="E11" s="4">
-        <v>0.78300000000000003</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>43.680999999999997</v>
+        <v>42.900000000000006</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="1"/>
-        <v>43.680999999999997</v>
+        <v>42.900000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B12" s="4">
-        <v>34.67</v>
+        <v>34.280999999999999</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <v>7.4320000000000004</v>
+        <v>8.06</v>
       </c>
       <c r="E12" s="4">
-        <v>0.79800000000000004</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>42.900000000000006</v>
+        <v>43.136000000000003</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="1"/>
-        <v>42.900000000000006</v>
+        <v>43.136000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B13" s="4">
-        <v>34.280999999999999</v>
+        <v>33.622</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="D13" s="4">
-        <v>8.06</v>
+        <v>7.86</v>
       </c>
       <c r="E13" s="4">
-        <v>0.79500000000000004</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>43.136000000000003</v>
+        <v>43.11</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="1"/>
-        <v>43.136000000000003</v>
+        <v>42.269999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B14" s="4">
-        <v>33.622</v>
+        <v>33.576000000000001</v>
       </c>
       <c r="C14" s="4">
-        <v>0.84</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D14" s="4">
-        <v>7.86</v>
+        <v>7.18</v>
       </c>
       <c r="E14" s="4">
-        <v>0.78800000000000003</v>
+        <v>0.627</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>43.11</v>
+        <v>41.943000000000005</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
-        <v>42.269999999999996</v>
+        <v>41.383000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
-        <v>45855</v>
+        <v>45857</v>
       </c>
       <c r="B15" s="4">
-        <v>33.576000000000001</v>
+        <v>33.822000000000003</v>
       </c>
       <c r="C15" s="4">
-        <v>0.56000000000000005</v>
+        <v>0.84</v>
       </c>
       <c r="D15" s="4">
-        <v>7.18</v>
+        <v>7.8760000000000003</v>
       </c>
       <c r="E15" s="4">
-        <v>0.627</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>41.943000000000005</v>
+        <v>43.169000000000004</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="1"/>
-        <v>41.383000000000003</v>
+        <v>42.329000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B16" s="4">
-        <v>33.822000000000003</v>
+        <v>33.597999999999999</v>
       </c>
       <c r="C16" s="4">
-        <v>0.84</v>
+        <v>0.434</v>
       </c>
       <c r="D16" s="4">
-        <v>7.8760000000000003</v>
+        <v>7.6849999999999996</v>
       </c>
       <c r="E16" s="4">
-        <v>0.63100000000000001</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="0"/>
-        <v>43.169000000000004</v>
+        <v>42.351999999999997</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="1"/>
-        <v>42.329000000000001</v>
+        <v>41.917999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B17" s="4">
-        <v>33.597999999999999</v>
+        <v>34.546999999999997</v>
       </c>
       <c r="C17" s="4">
-        <v>0.434</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4">
-        <v>7.6849999999999996</v>
+        <v>8.0809999999999995</v>
       </c>
       <c r="E17" s="4">
-        <v>0.63500000000000001</v>
+        <v>0.627</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="0"/>
-        <v>42.351999999999997</v>
+        <v>43.255000000000003</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="1"/>
-        <v>41.917999999999999</v>
+        <v>43.255000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B18" s="4">
-        <v>34.546999999999997</v>
+        <v>34.713999999999999</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D18" s="4">
-        <v>8.0809999999999995</v>
+        <v>8.5980000000000008</v>
       </c>
       <c r="E18" s="4">
-        <v>0.627</v>
+        <v>0.436</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>43.255000000000003</v>
+        <v>44.448</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="1"/>
-        <v>43.255000000000003</v>
+        <v>43.747999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B19" s="4">
-        <v>34.713999999999999</v>
+        <v>32.646000000000001</v>
       </c>
       <c r="C19" s="4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4">
-        <v>8.5980000000000008</v>
+        <v>11.5</v>
       </c>
       <c r="E19" s="4">
-        <v>0.436</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="0"/>
-        <v>44.448</v>
+        <v>44.939</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="1"/>
-        <v>43.747999999999998</v>
+        <v>44.939</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B20" s="4">
-        <v>32.646000000000001</v>
+        <v>33.259</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>11.5</v>
+        <v>8.2850000000000001</v>
       </c>
       <c r="E20" s="4">
-        <v>0.79300000000000004</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="0"/>
-        <v>44.939</v>
+        <v>42.347999999999999</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="1"/>
-        <v>44.939</v>
+        <v>42.347999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B21" s="4">
-        <v>33.259</v>
+        <v>33.784999999999997</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D21" s="4">
-        <v>8.2850000000000001</v>
+        <v>7.71</v>
       </c>
       <c r="E21" s="4">
-        <v>0.80400000000000005</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="0"/>
-        <v>42.347999999999999</v>
+        <v>43.410999999999994</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="1"/>
-        <v>42.347999999999999</v>
+        <v>42.290999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B22" s="4">
-        <v>33.784999999999997</v>
+        <v>33.463999999999999</v>
       </c>
       <c r="C22" s="4">
-        <v>1.1200000000000001</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="D22" s="4">
-        <v>7.71</v>
+        <v>8.3149999999999995</v>
       </c>
       <c r="E22" s="4">
-        <v>0.79600000000000004</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>43.410999999999994</v>
+        <v>43.637999999999998</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="1"/>
-        <v>42.290999999999997</v>
+        <v>42.559999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B23" s="4">
-        <v>33.463999999999999</v>
+        <v>33.270000000000003</v>
       </c>
       <c r="C23" s="4">
-        <v>1.0780000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="D23" s="4">
-        <v>8.3149999999999995</v>
+        <v>8.9149999999999991</v>
       </c>
       <c r="E23" s="4">
-        <v>0.78100000000000003</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>43.637999999999998</v>
+        <v>44.31</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="1"/>
-        <v>42.559999999999995</v>
+        <v>42.980000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B24" s="4">
-        <v>33.270000000000003</v>
+        <v>32.963999999999999</v>
       </c>
       <c r="C24" s="4">
-        <v>1.33</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="D24" s="4">
-        <v>8.9149999999999991</v>
+        <v>7.7249999999999996</v>
       </c>
       <c r="E24" s="4">
-        <v>0.79500000000000004</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="0"/>
-        <v>44.31</v>
+        <v>42.561999999999998</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="1"/>
-        <v>42.980000000000004</v>
+        <v>41.47</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>45869</v>
-      </c>
-      <c r="B25" s="4">
-        <v>32.963999999999999</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="D25" s="4">
-        <v>7.7249999999999996</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="0"/>
-        <v>42.561999999999998</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="1"/>
-        <v>41.47</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -9931,33 +9915,21 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="4">
+        <f>SUM(G2:G24)</f>
+        <v>977.41300000000001</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="4">
-        <f>SUM(G3:G25)</f>
-        <v>977.41300000000001</v>
-      </c>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9967,8 +9939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10065,7 +10037,7 @@
     </row>
     <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4">
         <v>34.883000000000003</v>
@@ -10146,7 +10118,7 @@
     </row>
     <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <v>1.7929999999999999</v>
@@ -10228,7 +10200,7 @@
     <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" ref="B6:AA6" si="0">B2+B3</f>
@@ -10337,14 +10309,14 @@
     </row>
     <row r="8" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="16"/>
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="17">
         <v>140</v>
@@ -10428,7 +10400,7 @@
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -10462,7 +10434,7 @@
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4">
         <v>0.4</v>
@@ -10546,7 +10518,7 @@
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4">
         <v>0.86799999999999999</v>
@@ -10630,7 +10602,7 @@
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4">
         <v>16.670999999999999</v>
@@ -10714,7 +10686,7 @@
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -10745,7 +10717,7 @@
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -10776,7 +10748,7 @@
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4">
         <v>2.98</v>
@@ -10857,7 +10829,7 @@
     </row>
     <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4">
         <f>(11.1+3.67)</f>
@@ -10964,7 +10936,7 @@
     </row>
     <row r="18" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="4">
         <v>5.8230000000000004</v>
@@ -11049,7 +11021,7 @@
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -11083,7 +11055,7 @@
     </row>
     <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="4">
         <v>1.65</v>
@@ -11167,7 +11139,7 @@
     </row>
     <row r="21" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -11201,7 +11173,7 @@
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -11235,7 +11207,7 @@
     </row>
     <row r="23" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -11269,7 +11241,7 @@
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -11349,7 +11321,7 @@
     </row>
     <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="4">
         <v>1.01</v>
@@ -11588,7 +11560,7 @@
     </row>
     <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="5">
         <f t="shared" ref="B30:AA30" si="4">B6-B28</f>
@@ -11704,15 +11676,15 @@
       <c r="AF31" s="29"/>
     </row>
     <row r="32" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
+      <c r="A32" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="4">
         <v>0.77900000000000003</v>
@@ -11796,7 +11768,7 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="5">
         <f t="shared" ref="B35:AA35" si="5">SUM(B33:B34)</f>
@@ -11904,15 +11876,15 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="A37" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="4">
         <v>1.861</v>
@@ -12000,7 +11972,7 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -12045,7 +12017,7 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="4">
         <v>30.78</v>
@@ -12126,7 +12098,7 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="4">
         <v>1.177</v>
@@ -12207,7 +12179,7 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="4">
         <v>0.86299999999999999</v>
@@ -12288,7 +12260,7 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="4">
         <v>2.7E-2</v>
@@ -12370,7 +12342,7 @@
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" s="5">
         <f>SUM(B37:B44)</f>
@@ -12480,7 +12452,7 @@
     <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="5">
         <f t="shared" ref="B48:AA48" si="7">B28-B35-B46</f>
@@ -12591,11 +12563,11 @@
       <c r="C49" s="20"/>
     </row>
     <row r="51" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
+      <c r="A51" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="19"/>
@@ -12622,7 +12594,7 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="4">
         <v>0</v>
@@ -12703,7 +12675,7 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="4">
         <v>11</v>
@@ -12784,7 +12756,7 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="4">
         <v>4</v>
@@ -12865,7 +12837,7 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="4">
         <v>14</v>
@@ -12946,7 +12918,7 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="4">
         <v>9</v>
@@ -13027,7 +12999,7 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="4">
         <v>17.928999999999998</v>
@@ -13108,7 +13080,7 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="4">
         <v>0</v>
@@ -13189,7 +13161,7 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -13220,7 +13192,7 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="4">
         <v>36.625999999999998</v>
@@ -13301,7 +13273,7 @@
     </row>
     <row r="61" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="4">
         <v>19.771000000000001</v>
@@ -13382,7 +13354,7 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -13413,7 +13385,7 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="4">
         <v>1.75</v>
@@ -13494,7 +13466,7 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -13525,7 +13497,7 @@
     </row>
     <row r="65" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="4">
         <v>10</v>
@@ -13606,7 +13578,7 @@
     </row>
     <row r="66" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="4">
         <v>2</v>
@@ -13852,7 +13824,7 @@
     </row>
     <row r="70" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="4">
@@ -14013,11 +13985,11 @@
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
+      <c r="A73" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -14044,7 +14016,7 @@
     </row>
     <row r="74" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B74" s="4">
         <v>1.44</v>
@@ -14125,7 +14097,7 @@
     </row>
     <row r="75" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B75" s="4">
         <v>0</v>
@@ -14206,7 +14178,7 @@
     </row>
     <row r="76" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76" s="4">
         <v>2.97</v>
@@ -14287,7 +14259,7 @@
     </row>
     <row r="77" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B77" s="4">
         <v>0</v>
@@ -14368,7 +14340,7 @@
     </row>
     <row r="78" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" s="4">
         <v>10.02</v>
@@ -14449,7 +14421,7 @@
     </row>
     <row r="79" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B79" s="4">
         <v>1.4850000000000001</v>
@@ -14530,7 +14502,7 @@
     </row>
     <row r="80" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" s="4">
         <v>0</v>
@@ -14611,7 +14583,7 @@
     </row>
     <row r="81" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B81" s="4">
         <v>0</v>
@@ -14692,7 +14664,7 @@
     </row>
     <row r="82" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B82" s="4">
         <v>0.3</v>
@@ -14773,7 +14745,7 @@
     </row>
     <row r="83" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B83" s="4">
         <v>0.78</v>
@@ -15019,7 +14991,7 @@
     </row>
     <row r="87" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -15153,7 +15125,7 @@
     </row>
     <row r="89" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B89" s="4">
         <f t="shared" ref="B89:AA89" si="12">+B69+B86</f>
@@ -15290,7 +15262,7 @@
     </row>
     <row r="91" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4">

--- a/data/Production_Filled_July.xlsx
+++ b/data/Production_Filled_July.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cil94\Desktop\test\Filter_form\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cil94\Desktop\Filter_form\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Total_Salable_Prod" sheetId="2" r:id="rId2"/>
     <sheet name="Product_Wise" sheetId="3" r:id="rId3"/>
+    <sheet name="Spinning_Prod" sheetId="4" r:id="rId4"/>
+    <sheet name="Twisting_Prod" sheetId="5" r:id="rId5"/>
+    <sheet name="Weaving_Prod" sheetId="6" r:id="rId6"/>
+    <sheet name="Spool_Winding_Stock" sheetId="7" r:id="rId7"/>
+    <sheet name="Cop_Winding_Stock" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
   <si>
     <t>DATE</t>
   </si>
@@ -362,7 +367,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +429,21 @@
       <color theme="1"/>
       <name val="Bell MT"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bell MT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -527,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -594,6 +614,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9939,8 +9965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:AA83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15376,4 +15402,4538 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38">
+        <v>45839</v>
+      </c>
+      <c r="C1" s="38">
+        <v>45840</v>
+      </c>
+      <c r="D1" s="38">
+        <v>45841</v>
+      </c>
+      <c r="E1" s="38">
+        <v>45843</v>
+      </c>
+      <c r="F1" s="38">
+        <v>45844</v>
+      </c>
+      <c r="G1" s="38">
+        <v>45845</v>
+      </c>
+      <c r="H1" s="38">
+        <v>45846</v>
+      </c>
+      <c r="I1" s="38">
+        <v>45848</v>
+      </c>
+      <c r="J1" s="38">
+        <v>45850</v>
+      </c>
+      <c r="K1" s="38">
+        <v>45851</v>
+      </c>
+      <c r="L1" s="38">
+        <v>45852</v>
+      </c>
+      <c r="M1" s="38">
+        <v>45853</v>
+      </c>
+      <c r="N1" s="38">
+        <v>45854</v>
+      </c>
+      <c r="O1" s="38">
+        <v>45855</v>
+      </c>
+      <c r="P1" s="38">
+        <v>45857</v>
+      </c>
+      <c r="Q1" s="38">
+        <v>45858</v>
+      </c>
+      <c r="R1" s="38">
+        <v>45859</v>
+      </c>
+      <c r="S1" s="38">
+        <v>45860</v>
+      </c>
+      <c r="T1" s="38">
+        <v>45861</v>
+      </c>
+      <c r="U1" s="38">
+        <v>45862</v>
+      </c>
+      <c r="V1" s="38">
+        <v>45864</v>
+      </c>
+      <c r="W1" s="38">
+        <v>45865</v>
+      </c>
+      <c r="X1" s="38">
+        <v>45866</v>
+      </c>
+      <c r="Y1" s="38">
+        <v>45867</v>
+      </c>
+      <c r="Z1" s="38">
+        <v>45868</v>
+      </c>
+      <c r="AA1" s="38">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="17">
+        <v>140</v>
+      </c>
+      <c r="C2" s="4">
+        <v>140</v>
+      </c>
+      <c r="D2" s="17">
+        <v>143</v>
+      </c>
+      <c r="E2" s="17">
+        <v>143</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17">
+        <v>143</v>
+      </c>
+      <c r="H2" s="17">
+        <v>143</v>
+      </c>
+      <c r="I2" s="17">
+        <v>143</v>
+      </c>
+      <c r="J2" s="17">
+        <v>143</v>
+      </c>
+      <c r="K2" s="17">
+        <v>143</v>
+      </c>
+      <c r="L2" s="5">
+        <v>143</v>
+      </c>
+      <c r="M2" s="18">
+        <v>138</v>
+      </c>
+      <c r="N2" s="17">
+        <v>143</v>
+      </c>
+      <c r="O2" s="17">
+        <v>143</v>
+      </c>
+      <c r="P2" s="17">
+        <v>143</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>142.5</v>
+      </c>
+      <c r="R2" s="17">
+        <v>141</v>
+      </c>
+      <c r="S2" s="17">
+        <v>142.5</v>
+      </c>
+      <c r="T2" s="17">
+        <v>143</v>
+      </c>
+      <c r="U2" s="17">
+        <v>141.5</v>
+      </c>
+      <c r="V2" s="5">
+        <v>140</v>
+      </c>
+      <c r="W2" s="17">
+        <v>143</v>
+      </c>
+      <c r="X2" s="17">
+        <v>143</v>
+      </c>
+      <c r="Y2" s="17">
+        <v>143</v>
+      </c>
+      <c r="Z2" s="17">
+        <v>143</v>
+      </c>
+      <c r="AA2" s="17">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="X4" s="4">
+        <v>1.24</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.432</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1.246</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0.629</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0.432</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1.254</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4">
+        <v>16.670999999999999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>16.905000000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>17.28</v>
+      </c>
+      <c r="E6" s="4">
+        <v>17.361999999999998</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>17.16</v>
+      </c>
+      <c r="H6" s="4">
+        <v>16.675999999999998</v>
+      </c>
+      <c r="I6" s="4">
+        <v>18.036999999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <v>18.193000000000001</v>
+      </c>
+      <c r="K6" s="4">
+        <v>18.093</v>
+      </c>
+      <c r="L6" s="4">
+        <v>18.16</v>
+      </c>
+      <c r="M6" s="4">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="N6" s="4">
+        <v>18.109000000000002</v>
+      </c>
+      <c r="O6" s="4">
+        <v>18.003</v>
+      </c>
+      <c r="P6" s="4">
+        <v>17.707000000000001</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="R6" s="4">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="S6" s="4">
+        <v>17.38</v>
+      </c>
+      <c r="T6" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="U6" s="4">
+        <v>18.239000000000001</v>
+      </c>
+      <c r="V6" s="4">
+        <v>18.327999999999999</v>
+      </c>
+      <c r="W6" s="4">
+        <v>18.962</v>
+      </c>
+      <c r="X6" s="4">
+        <v>19.18</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>18.98</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>19.725000000000001</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>19.071999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.98</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2.79</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3.22</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>2.79</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2.46</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2.56</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2.4159999999999999</v>
+      </c>
+      <c r="O9" s="4">
+        <v>2.36</v>
+      </c>
+      <c r="P9" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2.58</v>
+      </c>
+      <c r="R9" s="4">
+        <v>2.84</v>
+      </c>
+      <c r="S9" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>2.56</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>2.1840000000000002</v>
+      </c>
+      <c r="X9" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4">
+        <f>(11.1+3.67)</f>
+        <v>14.77</v>
+      </c>
+      <c r="C10" s="4">
+        <f>(11.23+3.815)</f>
+        <v>15.045</v>
+      </c>
+      <c r="D10" s="4">
+        <f>(9.888+3.67)</f>
+        <v>13.558</v>
+      </c>
+      <c r="E10" s="4">
+        <f>(9.96+3.65)</f>
+        <v>13.610000000000001</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <f>(9.864+3.56)</f>
+        <v>13.424000000000001</v>
+      </c>
+      <c r="H10" s="4">
+        <f>(9.655+3.475)</f>
+        <v>13.129999999999999</v>
+      </c>
+      <c r="I10" s="4">
+        <f>(10.017+3.605)</f>
+        <v>13.622</v>
+      </c>
+      <c r="J10" s="4">
+        <f>(10.041+3.658)</f>
+        <v>13.699</v>
+      </c>
+      <c r="K10" s="4">
+        <f>(9.545+3.716)</f>
+        <v>13.260999999999999</v>
+      </c>
+      <c r="L10" s="4">
+        <f>(8.902+3.725)</f>
+        <v>12.626999999999999</v>
+      </c>
+      <c r="M10" s="4">
+        <f>(7.08+3.789)</f>
+        <v>10.869</v>
+      </c>
+      <c r="N10" s="4">
+        <f>(9.875+3.67)</f>
+        <v>13.545</v>
+      </c>
+      <c r="O10" s="4">
+        <f>(9.478+3.737)</f>
+        <v>13.215</v>
+      </c>
+      <c r="P10" s="4">
+        <f>(8.945+3.671)</f>
+        <v>12.616</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>(9.44+3.69)</f>
+        <v>13.129999999999999</v>
+      </c>
+      <c r="R10" s="4">
+        <f>(9.18+3.63)</f>
+        <v>12.809999999999999</v>
+      </c>
+      <c r="S10" s="4">
+        <f>(10.265+2.09)</f>
+        <v>12.355</v>
+      </c>
+      <c r="T10" s="4">
+        <f>(9.39+2.06)</f>
+        <v>11.450000000000001</v>
+      </c>
+      <c r="U10" s="4">
+        <f>(9.825+2.955)</f>
+        <v>12.78</v>
+      </c>
+      <c r="V10" s="4">
+        <f>(9.436+3.79)</f>
+        <v>13.225999999999999</v>
+      </c>
+      <c r="W10" s="4">
+        <f>(9.4+3.8)</f>
+        <v>13.2</v>
+      </c>
+      <c r="X10" s="4">
+        <f>(9.01+3.79)</f>
+        <v>12.8</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>9.1679999999999993</v>
+      </c>
+      <c r="Z10" s="4">
+        <f>(9.152+3.746)</f>
+        <v>12.898</v>
+      </c>
+      <c r="AA10" s="4">
+        <f>(9.2+3.78)</f>
+        <v>12.979999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5.8230000000000004</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5.923</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5.6429999999999998</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6.07</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>5.78</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5.69</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5.0259999999999998</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5.016</v>
+      </c>
+      <c r="K11" s="4">
+        <v>5.1680000000000001</v>
+      </c>
+      <c r="L11" s="4">
+        <v>5.3520000000000003</v>
+      </c>
+      <c r="M11" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="N11" s="4">
+        <v>5.17</v>
+      </c>
+      <c r="O11" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P11" s="4">
+        <v>5.016</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>5.3049999999999997</v>
+      </c>
+      <c r="R11" s="4">
+        <v>5.7050000000000001</v>
+      </c>
+      <c r="S11" s="4">
+        <v>6.4180000000000001</v>
+      </c>
+      <c r="T11" s="4">
+        <v>9.82</v>
+      </c>
+      <c r="U11" s="4">
+        <v>5.3650000000000002</v>
+      </c>
+      <c r="V11" s="4">
+        <v>7.62</v>
+      </c>
+      <c r="W11" s="4">
+        <v>4.4290000000000003</v>
+      </c>
+      <c r="X11" s="4">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>(2.92+5.165)</f>
+        <v>8.0850000000000009</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>5.73</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>4.5149999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1.615</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1.31</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="V13" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="W13" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1.845</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="L17" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="M17" s="4">
+        <v>2.21</v>
+      </c>
+      <c r="N17" s="4">
+        <v>2.69</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="P17" s="4">
+        <v>2.86</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="R17" s="4">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="S17" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="T17" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="U17" s="4">
+        <v>2.92</v>
+      </c>
+      <c r="V17" s="4">
+        <v>1.73</v>
+      </c>
+      <c r="W17" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="X17" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="S18" s="4">
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="27" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38">
+        <v>45839</v>
+      </c>
+      <c r="C1" s="38">
+        <v>45840</v>
+      </c>
+      <c r="D1" s="38">
+        <v>45841</v>
+      </c>
+      <c r="E1" s="38">
+        <v>45843</v>
+      </c>
+      <c r="F1" s="38">
+        <v>45844</v>
+      </c>
+      <c r="G1" s="38">
+        <v>45845</v>
+      </c>
+      <c r="H1" s="38">
+        <v>45846</v>
+      </c>
+      <c r="I1" s="38">
+        <v>45848</v>
+      </c>
+      <c r="J1" s="38">
+        <v>45850</v>
+      </c>
+      <c r="K1" s="38">
+        <v>45851</v>
+      </c>
+      <c r="L1" s="38">
+        <v>45852</v>
+      </c>
+      <c r="M1" s="38">
+        <v>45853</v>
+      </c>
+      <c r="N1" s="38">
+        <v>45854</v>
+      </c>
+      <c r="O1" s="38">
+        <v>45855</v>
+      </c>
+      <c r="P1" s="38">
+        <v>45857</v>
+      </c>
+      <c r="Q1" s="38">
+        <v>45858</v>
+      </c>
+      <c r="R1" s="38">
+        <v>45859</v>
+      </c>
+      <c r="S1" s="38">
+        <v>45860</v>
+      </c>
+      <c r="T1" s="38">
+        <v>45861</v>
+      </c>
+      <c r="U1" s="38">
+        <v>45862</v>
+      </c>
+      <c r="V1" s="38">
+        <v>45864</v>
+      </c>
+      <c r="W1" s="38">
+        <v>45865</v>
+      </c>
+      <c r="X1" s="38">
+        <v>45866</v>
+      </c>
+      <c r="Y1" s="38">
+        <v>45867</v>
+      </c>
+      <c r="Z1" s="38">
+        <v>45868</v>
+      </c>
+      <c r="AA1" s="38">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.627</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.627</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.436</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0.78100000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="27" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38">
+        <v>45839</v>
+      </c>
+      <c r="C1" s="38">
+        <v>45840</v>
+      </c>
+      <c r="D1" s="38">
+        <v>45841</v>
+      </c>
+      <c r="E1" s="38">
+        <v>45843</v>
+      </c>
+      <c r="F1" s="38">
+        <v>45844</v>
+      </c>
+      <c r="G1" s="38">
+        <v>45845</v>
+      </c>
+      <c r="H1" s="38">
+        <v>45846</v>
+      </c>
+      <c r="I1" s="38">
+        <v>45848</v>
+      </c>
+      <c r="J1" s="38">
+        <v>45850</v>
+      </c>
+      <c r="K1" s="38">
+        <v>45851</v>
+      </c>
+      <c r="L1" s="38">
+        <v>45852</v>
+      </c>
+      <c r="M1" s="38">
+        <v>45853</v>
+      </c>
+      <c r="N1" s="38">
+        <v>45854</v>
+      </c>
+      <c r="O1" s="38">
+        <v>45855</v>
+      </c>
+      <c r="P1" s="38">
+        <v>45857</v>
+      </c>
+      <c r="Q1" s="38">
+        <v>45858</v>
+      </c>
+      <c r="R1" s="38">
+        <v>45859</v>
+      </c>
+      <c r="S1" s="38">
+        <v>45860</v>
+      </c>
+      <c r="T1" s="38">
+        <v>45861</v>
+      </c>
+      <c r="U1" s="38">
+        <v>45862</v>
+      </c>
+      <c r="V1" s="38">
+        <v>45864</v>
+      </c>
+      <c r="W1" s="38">
+        <v>45865</v>
+      </c>
+      <c r="X1" s="38">
+        <v>45866</v>
+      </c>
+      <c r="Y1" s="38">
+        <v>45867</v>
+      </c>
+      <c r="Z1" s="38">
+        <v>45868</v>
+      </c>
+      <c r="AA1" s="38">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.861</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.536</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.258</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="H2" s="4">
+        <f>(525+503+373)/1000</f>
+        <v>1.401</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1.427</v>
+      </c>
+      <c r="K2" s="4">
+        <f>(804+326+459)/1000</f>
+        <v>1.589</v>
+      </c>
+      <c r="L2" s="4">
+        <f>(905+373+525)/1000</f>
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1.508</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1.476</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1.4510000000000001</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1.401</v>
+      </c>
+      <c r="R2" s="4">
+        <f>(503+326+525)/1000</f>
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="S2" s="4">
+        <f>(375+326+525)/1000</f>
+        <v>1.226</v>
+      </c>
+      <c r="T2" s="4">
+        <v>1.103</v>
+      </c>
+      <c r="U2" s="4">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="V2" s="4">
+        <v>1.149</v>
+      </c>
+      <c r="W2" s="4">
+        <f>(101+373+525)/1000</f>
+        <v>0.999</v>
+      </c>
+      <c r="X2" s="4">
+        <f>(176+326+525)/1000</f>
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>1.149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4">
+        <v>30.78</v>
+      </c>
+      <c r="C4" s="4">
+        <v>30.709</v>
+      </c>
+      <c r="D4" s="4">
+        <v>30.875</v>
+      </c>
+      <c r="E4" s="4">
+        <v>29.853000000000002</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>30.626999999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>30.773</v>
+      </c>
+      <c r="I4" s="4">
+        <v>30.428000000000001</v>
+      </c>
+      <c r="J4" s="4">
+        <v>30.62</v>
+      </c>
+      <c r="K4" s="4">
+        <v>30.978000000000002</v>
+      </c>
+      <c r="L4" s="4">
+        <v>30.157</v>
+      </c>
+      <c r="M4" s="4">
+        <v>30.462</v>
+      </c>
+      <c r="N4" s="4">
+        <v>30.091999999999999</v>
+      </c>
+      <c r="O4" s="4">
+        <v>30.065000000000001</v>
+      </c>
+      <c r="P4" s="4">
+        <v>30.370999999999999</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>30.286999999999999</v>
+      </c>
+      <c r="R4" s="4">
+        <v>30.495000000000001</v>
+      </c>
+      <c r="S4" s="4">
+        <v>31.234000000000002</v>
+      </c>
+      <c r="T4" s="4">
+        <v>29.779</v>
+      </c>
+      <c r="U4" s="4">
+        <v>30.494</v>
+      </c>
+      <c r="V4" s="4">
+        <v>29.887</v>
+      </c>
+      <c r="W4" s="4">
+        <v>29.274000000000001</v>
+      </c>
+      <c r="X4" s="4">
+        <v>30.177</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>30.753</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>30.088999999999999</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>29.780999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.177</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.284</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.177</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>1.177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1.004</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0.621</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="K7" s="4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.216</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.216</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.189</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="R7" s="4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0.112</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="27" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38">
+        <v>45839</v>
+      </c>
+      <c r="C1" s="38">
+        <v>45840</v>
+      </c>
+      <c r="D1" s="38">
+        <v>45841</v>
+      </c>
+      <c r="E1" s="38">
+        <v>45843</v>
+      </c>
+      <c r="F1" s="38">
+        <v>45844</v>
+      </c>
+      <c r="G1" s="38">
+        <v>45845</v>
+      </c>
+      <c r="H1" s="38">
+        <v>45846</v>
+      </c>
+      <c r="I1" s="38">
+        <v>45848</v>
+      </c>
+      <c r="J1" s="38">
+        <v>45850</v>
+      </c>
+      <c r="K1" s="38">
+        <v>45851</v>
+      </c>
+      <c r="L1" s="38">
+        <v>45852</v>
+      </c>
+      <c r="M1" s="38">
+        <v>45853</v>
+      </c>
+      <c r="N1" s="38">
+        <v>45854</v>
+      </c>
+      <c r="O1" s="38">
+        <v>45855</v>
+      </c>
+      <c r="P1" s="38">
+        <v>45857</v>
+      </c>
+      <c r="Q1" s="38">
+        <v>45858</v>
+      </c>
+      <c r="R1" s="38">
+        <v>45859</v>
+      </c>
+      <c r="S1" s="38">
+        <v>45860</v>
+      </c>
+      <c r="T1" s="38">
+        <v>45861</v>
+      </c>
+      <c r="U1" s="38">
+        <v>45862</v>
+      </c>
+      <c r="V1" s="38">
+        <v>45864</v>
+      </c>
+      <c r="W1" s="38">
+        <v>45865</v>
+      </c>
+      <c r="X1" s="38">
+        <v>45866</v>
+      </c>
+      <c r="Y1" s="38">
+        <v>45867</v>
+      </c>
+      <c r="Z1" s="38">
+        <v>45868</v>
+      </c>
+      <c r="AA1" s="38">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="J3" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="K3" s="4">
+        <v>8.1050000000000004</v>
+      </c>
+      <c r="L3" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="M3" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="N3" s="4">
+        <v>7</v>
+      </c>
+      <c r="O3" s="4">
+        <v>8</v>
+      </c>
+      <c r="P3" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>8</v>
+      </c>
+      <c r="R3" s="4">
+        <v>8.4949999999999992</v>
+      </c>
+      <c r="S3" s="4">
+        <v>8</v>
+      </c>
+      <c r="T3" s="4">
+        <v>8</v>
+      </c>
+      <c r="U3" s="4">
+        <v>8</v>
+      </c>
+      <c r="V3" s="4">
+        <v>8</v>
+      </c>
+      <c r="W3" s="4">
+        <v>6</v>
+      </c>
+      <c r="X3" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.375</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="W4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="J5" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="L5" s="4">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="N5" s="4">
+        <v>6</v>
+      </c>
+      <c r="O5" s="4">
+        <v>6</v>
+      </c>
+      <c r="P5" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>5</v>
+      </c>
+      <c r="R5" s="4">
+        <v>5</v>
+      </c>
+      <c r="S5" s="4">
+        <v>5</v>
+      </c>
+      <c r="T5" s="4">
+        <v>5</v>
+      </c>
+      <c r="U5" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="W5" s="4">
+        <v>7</v>
+      </c>
+      <c r="X5" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <v>10.25</v>
+      </c>
+      <c r="J6" s="4">
+        <v>10.25</v>
+      </c>
+      <c r="K6" s="4">
+        <v>9</v>
+      </c>
+      <c r="L6" s="4">
+        <v>9</v>
+      </c>
+      <c r="M6" s="4">
+        <v>9</v>
+      </c>
+      <c r="N6" s="4">
+        <v>9</v>
+      </c>
+      <c r="O6" s="4">
+        <v>9</v>
+      </c>
+      <c r="P6" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="R6" s="4">
+        <v>9</v>
+      </c>
+      <c r="S6" s="4">
+        <v>10</v>
+      </c>
+      <c r="T6" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="U6" s="4">
+        <v>10</v>
+      </c>
+      <c r="V6" s="4">
+        <v>10</v>
+      </c>
+      <c r="W6" s="4">
+        <v>13</v>
+      </c>
+      <c r="X6" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4">
+        <v>17.928999999999998</v>
+      </c>
+      <c r="C7" s="4">
+        <v>22.745999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>28.388999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>34.459000000000003</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>40.238999999999997</v>
+      </c>
+      <c r="H7" s="4">
+        <v>45.929000000000002</v>
+      </c>
+      <c r="I7" s="4">
+        <v>27.704999999999998</v>
+      </c>
+      <c r="J7" s="4">
+        <v>32.720999999999997</v>
+      </c>
+      <c r="K7" s="4">
+        <v>37.889000000000003</v>
+      </c>
+      <c r="L7" s="4">
+        <v>43.241</v>
+      </c>
+      <c r="M7" s="4">
+        <v>49.091000000000001</v>
+      </c>
+      <c r="N7" s="4">
+        <v>54.261000000000003</v>
+      </c>
+      <c r="O7" s="4">
+        <v>47.500999999999998</v>
+      </c>
+      <c r="P7" s="4">
+        <v>52.517000000000003</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>57.822000000000003</v>
+      </c>
+      <c r="R7" s="4">
+        <v>63.527000000000001</v>
+      </c>
+      <c r="S7" s="4">
+        <v>58.215000000000003</v>
+      </c>
+      <c r="T7" s="4">
+        <v>68.034999999999997</v>
+      </c>
+      <c r="U7" s="4">
+        <v>61.2</v>
+      </c>
+      <c r="V7" s="4">
+        <v>68.819999999999993</v>
+      </c>
+      <c r="W7" s="4">
+        <v>73.248999999999995</v>
+      </c>
+      <c r="X7" s="4">
+        <v>66.429000000000002</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>71.593999999999994</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>77.323999999999998</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>69.838999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="4">
+        <v>36.625999999999998</v>
+      </c>
+      <c r="C10" s="4">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9.14</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>10.75</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="I10" s="22">
+        <v>5.45</v>
+      </c>
+      <c r="J10" s="4">
+        <v>-1.7050000000000001</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3.585</v>
+      </c>
+      <c r="L10" s="4">
+        <v>5.665</v>
+      </c>
+      <c r="M10" s="4">
+        <v>7.875</v>
+      </c>
+      <c r="N10" s="4">
+        <v>10.565</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3.577</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>5.9569999999999999</v>
+      </c>
+      <c r="R10" s="4">
+        <v>8.3330000000000002</v>
+      </c>
+      <c r="S10" s="4">
+        <v>10.513</v>
+      </c>
+      <c r="T10" s="4">
+        <v>11.673</v>
+      </c>
+      <c r="U10" s="4">
+        <v>14.593</v>
+      </c>
+      <c r="V10" s="4">
+        <v>7.3230000000000004</v>
+      </c>
+      <c r="W10" s="4">
+        <v>10.473000000000001</v>
+      </c>
+      <c r="X10" s="4">
+        <v>13.663</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>16.763000000000002</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>19.948</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>23.158000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="4">
+        <v>19.771000000000001</v>
+      </c>
+      <c r="C11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="H11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="I11" s="22">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="J11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="K11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="L11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="M11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="N11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="O11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="P11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="R11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="S11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="T11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="U11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="V11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="W11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="X11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>19.225000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="R13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="S13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="V13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="W13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>14.75</v>
+      </c>
+      <c r="I15" s="4">
+        <v>15</v>
+      </c>
+      <c r="J15" s="4">
+        <v>15</v>
+      </c>
+      <c r="K15" s="4">
+        <v>16</v>
+      </c>
+      <c r="L15" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="M15" s="4">
+        <v>16</v>
+      </c>
+      <c r="N15" s="4">
+        <v>16</v>
+      </c>
+      <c r="O15" s="4">
+        <v>16</v>
+      </c>
+      <c r="P15" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="R15" s="4">
+        <v>14</v>
+      </c>
+      <c r="S15" s="4">
+        <v>13</v>
+      </c>
+      <c r="T15" s="4">
+        <v>12</v>
+      </c>
+      <c r="U15" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="V15" s="4">
+        <v>11</v>
+      </c>
+      <c r="W15" s="4">
+        <v>9</v>
+      </c>
+      <c r="X15" s="4">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4">
+        <v>2</v>
+      </c>
+      <c r="M16" s="4">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>2</v>
+      </c>
+      <c r="P16" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>2</v>
+      </c>
+      <c r="R16" s="4">
+        <v>2</v>
+      </c>
+      <c r="S16" s="4">
+        <v>2</v>
+      </c>
+      <c r="T16" s="4">
+        <v>2</v>
+      </c>
+      <c r="U16" s="4">
+        <v>2</v>
+      </c>
+      <c r="V16" s="4">
+        <v>2</v>
+      </c>
+      <c r="W16" s="4">
+        <v>2</v>
+      </c>
+      <c r="X16" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="27" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38">
+        <v>45839</v>
+      </c>
+      <c r="C1" s="38">
+        <v>45840</v>
+      </c>
+      <c r="D1" s="38">
+        <v>45841</v>
+      </c>
+      <c r="E1" s="38">
+        <v>45843</v>
+      </c>
+      <c r="F1" s="38">
+        <v>45844</v>
+      </c>
+      <c r="G1" s="38">
+        <v>45845</v>
+      </c>
+      <c r="H1" s="38">
+        <v>45846</v>
+      </c>
+      <c r="I1" s="38">
+        <v>45848</v>
+      </c>
+      <c r="J1" s="38">
+        <v>45850</v>
+      </c>
+      <c r="K1" s="38">
+        <v>45851</v>
+      </c>
+      <c r="L1" s="38">
+        <v>45852</v>
+      </c>
+      <c r="M1" s="38">
+        <v>45853</v>
+      </c>
+      <c r="N1" s="38">
+        <v>45854</v>
+      </c>
+      <c r="O1" s="38">
+        <v>45855</v>
+      </c>
+      <c r="P1" s="38">
+        <v>45857</v>
+      </c>
+      <c r="Q1" s="38">
+        <v>45858</v>
+      </c>
+      <c r="R1" s="38">
+        <v>45859</v>
+      </c>
+      <c r="S1" s="38">
+        <v>45860</v>
+      </c>
+      <c r="T1" s="38">
+        <v>45861</v>
+      </c>
+      <c r="U1" s="38">
+        <v>45862</v>
+      </c>
+      <c r="V1" s="38">
+        <v>45864</v>
+      </c>
+      <c r="W1" s="38">
+        <v>45865</v>
+      </c>
+      <c r="X1" s="38">
+        <v>45866</v>
+      </c>
+      <c r="Y1" s="38">
+        <v>45867</v>
+      </c>
+      <c r="Z1" s="38">
+        <v>45868</v>
+      </c>
+      <c r="AA1" s="38">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.425</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1.635</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1.575</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="R2" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="S2" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="T2" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="U2" s="4">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="V2" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="W2" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="X2" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>4.0350000000000001</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="J4" s="4">
+        <v>4.1849999999999996</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="L4" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="O4" s="4">
+        <v>3</v>
+      </c>
+      <c r="P4" s="4">
+        <v>3.375</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>3.9750000000000001</v>
+      </c>
+      <c r="R4" s="4">
+        <v>3.9750000000000001</v>
+      </c>
+      <c r="S4" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="T4" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="U4" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="V4" s="4">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="W4" s="4">
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="X4" s="4">
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>3.93</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>3.585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="I6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="J6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="K6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="L6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="M6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="N6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="O6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="P6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="R6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="S6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="T6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="U6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="V6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="W6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="X6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1.335</v>
+      </c>
+      <c r="W7" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="X7" s="4">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="27">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0.105</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>